--- a/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000 – Фрезеровка.xlsx
+++ b/data/ИНРТ.100.00.00.000/ИНРТ.100.00.00.000 – Фрезеровка.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,30 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Обозначение</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Примечание</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Материалы</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Общее количество</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Количество</t>
         </is>
@@ -458,19 +468,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ИНРТ.100.01.01.002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Подкос</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>НФ-00002221_2.2м,Р,Т,Ф</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Труба 40х40х2, сталь 20</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
